--- a/outputs/validation_report.xlsx
+++ b/outputs/validation_report.xlsx
@@ -440,7 +440,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>369</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -450,7 +450,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4403</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -461,7 +461,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
     </row>
